--- a/实验记录/实验分数记录.xlsx
+++ b/实验记录/实验分数记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业设计-表情识别\实验记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FER\实验记录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983FA47-6F76-4E69-A0E2-A0B4E42EF30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83593F56-73E4-4D5D-9C37-67C100C2081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2676" windowWidth="17280" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附件：model-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>val_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <t>model_filter_4.h5</t>
   </si>
   <si>
-    <t>验证集训练过程中准确率从0.6506下降到0.6308（Rec1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model_filter_5.h5</t>
   </si>
   <si>
@@ -108,14 +100,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Facial Expression Recognizer-V1.ipynb</t>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FER-V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FER-V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageDataGenerator-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini_XCEPTION.hdf5</t>
+  </si>
+  <si>
+    <t>FER-V2.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FER-V1.ipynb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +159,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,9 +217,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,29 +507,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="3"/>
-    <col min="9" max="9" width="15.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,34 +538,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -522,28 +576,33 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
         <v>64</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.60850000000000004</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -551,28 +610,33 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
         <v>64</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
         <v>0.59209999999999996</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -580,28 +644,33 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
         <v>64</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
         <v>0.5857</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -609,32 +678,33 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
         <v>64</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.63080000000000003</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -642,49 +712,71 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
+      <c r="F6" s="1">
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.65580000000000005</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -697,11 +789,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -714,11 +807,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -731,11 +825,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -748,11 +843,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -765,11 +861,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -782,13 +879,14 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>